--- a/notebooks/assets/test/keraspm25_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.793</v>
+        <v>1.842</v>
       </c>
       <c r="C2" t="n">
-        <v>1.531</v>
+        <v>1.669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.964</v>
+        <v>1.026</v>
       </c>
       <c r="E2" t="n">
-        <v>2.075</v>
+        <v>1.745</v>
       </c>
       <c r="F2" t="n">
-        <v>1.496</v>
+        <v>1.515</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.38</v>
+        <v>5.185</v>
       </c>
       <c r="C3" t="n">
-        <v>3.454</v>
+        <v>4.531</v>
       </c>
       <c r="D3" t="n">
-        <v>1.498</v>
+        <v>1.594</v>
       </c>
       <c r="E3" t="n">
-        <v>7.133</v>
+        <v>5.522</v>
       </c>
       <c r="F3" t="n">
-        <v>3.526</v>
+        <v>3.695</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.452</v>
+        <v>0.301</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229</v>
+        <v>0.126</v>
       </c>
       <c r="E4" t="n">
-        <v>0.289</v>
+        <v>0.499</v>
       </c>
       <c r="F4" t="n">
-        <v>0.544</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         <v>7.8</v>
       </c>
       <c r="C5" t="n">
-        <v>6.556</v>
+        <v>6.554</v>
       </c>
       <c r="D5" t="n">
-        <v>2.112</v>
+        <v>2.113</v>
       </c>
       <c r="E5" t="n">
         <v>3.06</v>
       </c>
       <c r="F5" t="n">
-        <v>3.476</v>
+        <v>3.478</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.21599999999999</v>
+        <v>86.279</v>
       </c>
       <c r="C6" t="n">
-        <v>57.592</v>
+        <v>57.562</v>
       </c>
       <c r="D6" t="n">
-        <v>7.554</v>
+        <v>7.565</v>
       </c>
       <c r="E6" t="n">
         <v>13.266</v>
       </c>
       <c r="F6" t="n">
-        <v>16.576</v>
+        <v>16.591</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.028</v>
+        <v>-2.147</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.5</v>
+        <v>-8.102</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.93</v>
+        <v>-3.386</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.451</v>
+        <v>-0.239</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.13</v>
+        <v>-1.158</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/assets/test/keraspm25_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_1_mountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.842</v>
+        <v>1.995</v>
       </c>
       <c r="C2" t="n">
-        <v>1.669</v>
+        <v>1.53</v>
       </c>
       <c r="D2" t="n">
-        <v>1.026</v>
+        <v>0.931</v>
       </c>
       <c r="E2" t="n">
-        <v>1.745</v>
+        <v>1.574</v>
       </c>
       <c r="F2" t="n">
-        <v>1.515</v>
+        <v>1.191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.185</v>
+        <v>2.476</v>
       </c>
       <c r="C3" t="n">
-        <v>4.531</v>
+        <v>1.962</v>
       </c>
       <c r="D3" t="n">
-        <v>1.594</v>
+        <v>1.178</v>
       </c>
       <c r="E3" t="n">
-        <v>5.522</v>
+        <v>2.001</v>
       </c>
       <c r="F3" t="n">
-        <v>3.695</v>
+        <v>1.522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8169999999999999</v>
+        <v>6.164</v>
       </c>
       <c r="C4" t="n">
-        <v>0.301</v>
+        <v>3.92</v>
       </c>
       <c r="D4" t="n">
-        <v>0.126</v>
+        <v>1.43</v>
       </c>
       <c r="E4" t="n">
-        <v>0.499</v>
+        <v>4.204</v>
       </c>
       <c r="F4" t="n">
-        <v>0.546</v>
+        <v>2.408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="C5" t="n">
-        <v>6.554</v>
+        <v>0.385</v>
       </c>
       <c r="D5" t="n">
-        <v>2.113</v>
+        <v>0.241</v>
       </c>
       <c r="E5" t="n">
-        <v>3.06</v>
+        <v>0.604</v>
       </c>
       <c r="F5" t="n">
-        <v>3.478</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.279</v>
+        <v>7.8</v>
       </c>
       <c r="C6" t="n">
-        <v>57.562</v>
+        <v>6.554</v>
       </c>
       <c r="D6" t="n">
-        <v>7.565</v>
+        <v>2.113</v>
       </c>
       <c r="E6" t="n">
-        <v>13.266</v>
+        <v>3.06</v>
       </c>
       <c r="F6" t="n">
-        <v>16.591</v>
+        <v>3.478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9.262</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.571</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.598</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.067</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>86.279</v>
+      </c>
+      <c r="C8" t="n">
+        <v>57.562</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.565</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.266</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.591</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>-2.147</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-8.102</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>-3.386</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>-0.239</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>-1.158</v>
       </c>
     </row>

--- a/notebooks/assets/test/keraspm25_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.995</v>
+        <v>2.117</v>
       </c>
       <c r="C2" t="n">
-        <v>1.53</v>
+        <v>1.519</v>
       </c>
       <c r="D2" t="n">
-        <v>0.931</v>
+        <v>0.823</v>
       </c>
       <c r="E2" t="n">
-        <v>1.574</v>
+        <v>1.401</v>
       </c>
       <c r="F2" t="n">
-        <v>1.191</v>
+        <v>1.241</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.476</v>
+        <v>2.633</v>
       </c>
       <c r="C3" t="n">
-        <v>1.962</v>
+        <v>1.84</v>
       </c>
       <c r="D3" t="n">
-        <v>1.178</v>
+        <v>1.014</v>
       </c>
       <c r="E3" t="n">
-        <v>2.001</v>
+        <v>1.787</v>
       </c>
       <c r="F3" t="n">
-        <v>1.522</v>
+        <v>1.509</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.164</v>
+        <v>7.012</v>
       </c>
       <c r="C4" t="n">
-        <v>3.92</v>
+        <v>3.473</v>
       </c>
       <c r="D4" t="n">
-        <v>1.43</v>
+        <v>1.055</v>
       </c>
       <c r="E4" t="n">
-        <v>4.204</v>
+        <v>3.249</v>
       </c>
       <c r="F4" t="n">
-        <v>2.408</v>
+        <v>2.362</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.78</v>
+        <v>0.753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.385</v>
+        <v>0.475</v>
       </c>
       <c r="D5" t="n">
-        <v>0.241</v>
+        <v>0.448</v>
       </c>
       <c r="E5" t="n">
-        <v>0.604</v>
+        <v>0.695</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/notebooks/assets/test/keraspm25_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/keraspm25_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.117</v>
+        <v>2.127</v>
       </c>
       <c r="C2" t="n">
-        <v>1.519</v>
+        <v>1.581</v>
       </c>
       <c r="D2" t="n">
-        <v>0.823</v>
+        <v>0.847</v>
       </c>
       <c r="E2" t="n">
-        <v>1.401</v>
+        <v>1.516</v>
       </c>
       <c r="F2" t="n">
-        <v>1.241</v>
+        <v>1.268</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.633</v>
+        <v>2.643</v>
       </c>
       <c r="C3" t="n">
-        <v>1.84</v>
+        <v>2.008</v>
       </c>
       <c r="D3" t="n">
-        <v>1.014</v>
+        <v>1.046</v>
       </c>
       <c r="E3" t="n">
-        <v>1.787</v>
+        <v>1.912</v>
       </c>
       <c r="F3" t="n">
-        <v>1.509</v>
+        <v>1.591</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.012</v>
+        <v>7.097</v>
       </c>
       <c r="C4" t="n">
-        <v>3.473</v>
+        <v>4.064</v>
       </c>
       <c r="D4" t="n">
-        <v>1.055</v>
+        <v>1.108</v>
       </c>
       <c r="E4" t="n">
-        <v>3.249</v>
+        <v>3.743</v>
       </c>
       <c r="F4" t="n">
-        <v>2.362</v>
+        <v>2.578</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
       <c r="C5" t="n">
-        <v>0.475</v>
+        <v>0.358</v>
       </c>
       <c r="D5" t="n">
-        <v>0.448</v>
+        <v>0.408</v>
       </c>
       <c r="E5" t="n">
-        <v>0.695</v>
+        <v>0.649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="6">
